--- a/DAVE'S EXAMPLE TESTS.xlsx
+++ b/DAVE'S EXAMPLE TESTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\SD6503_Assignment1_22502803\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w2shared-my.sharepoint.com/personal/dave_sushames01_student_wandw_ac_nz/Documents/Documents/Testing and Secure Coding/GroupAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD63BB-95B9-4663-97C2-FE3996AEDBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="743" documentId="13_ncr:1_{1AAD63BB-95B9-4663-97C2-FE3996AEDBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{619F119E-F7AF-48B1-8562-15F122953A30}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{84DD0BDD-34A0-4121-B413-A041E4D23E14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84DD0BDD-34A0-4121-B413-A041E4D23E14}"/>
   </bookViews>
   <sheets>
     <sheet name="Black Box Testing" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="578">
   <si>
     <t>Class</t>
   </si>
@@ -322,357 +322,81 @@
                                                                                    Total outcomes: 4</t>
   </si>
   <si>
-    <t>Load Button functionality</t>
-  </si>
-  <si>
-    <t>Click on the "Load" button</t>
-  </si>
-  <si>
-    <t>A-Z Button functionality</t>
-  </si>
-  <si>
-    <t>Staff has been loaded</t>
-  </si>
-  <si>
-    <t>Click on the "A-Z" button</t>
-  </si>
-  <si>
-    <t>Should sort Staff alphabetically by name</t>
-  </si>
-  <si>
-    <t>Sorts staff alphabetically by name</t>
-  </si>
-  <si>
-    <t>Z-A Button functionality</t>
-  </si>
-  <si>
-    <t>Click on the "Z-A" button</t>
-  </si>
-  <si>
-    <t>Should sort Staff reverse alphabetically by name</t>
-  </si>
-  <si>
-    <t>Sorts staff reverse alphabetically by name</t>
-  </si>
-  <si>
-    <t>Listbox should be populated with staff details from the staff.txt file</t>
-  </si>
-  <si>
-    <t>Listbox gets populated with the staff details from the staff.txt file</t>
-  </si>
-  <si>
-    <t>Staff.txt file exists, containing a sample of staff entries</t>
-  </si>
-  <si>
     <t>TC_BBT_04</t>
   </si>
   <si>
-    <t>Search Button functionality</t>
-  </si>
-  <si>
-    <t>Staff has been loaded, text entered into Search bar</t>
-  </si>
-  <si>
-    <t>seach bar = a</t>
-  </si>
-  <si>
-    <t>Click on the "Search" button</t>
-  </si>
-  <si>
-    <t>Listbox gets populated with the filtered staff containing the letter "a"</t>
-  </si>
-  <si>
-    <t>Listbox should populate with staff whose name contains the letter "a"</t>
-  </si>
-  <si>
     <t>TC_BBT_05</t>
   </si>
   <si>
-    <t>Text Boxes</t>
-  </si>
-  <si>
-    <t>Click on a staff name in the Staff Listbox</t>
-  </si>
-  <si>
-    <t>Text boxes should populate with selected Staff's  ID, Name, Position, Email, Phone, DOB, Salary, Start Date, and Address. Deselect any other selections.</t>
-  </si>
-  <si>
-    <t>Text boxes populate with selected Staff's  ID, Name, Position, Email, Phone, DOB, Salary, Start Date, and Address. Any other selections are deselected.</t>
-  </si>
-  <si>
-    <t>Staff Selection functionality</t>
-  </si>
-  <si>
     <t>TC_BBT_06</t>
   </si>
   <si>
-    <t>Search Results Selection functionality</t>
-  </si>
-  <si>
-    <t>Click on a staff name in the Search Results Listbox</t>
-  </si>
-  <si>
     <t>TC_BBT_07</t>
   </si>
   <si>
-    <t>Add Staff Button functionality</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Click on the "Add Staff" button</t>
-  </si>
-  <si>
-    <t>Should populate the ID textbox with the highest staff ID +1, and allow the other textboxes to be typed in. Should make the "Save New Staff" button visible.</t>
-  </si>
-  <si>
-    <t>Populates the ID textbox with the highest staff ID +1, and allows the other textboxes to be typed in. Makes the "Save New Staff" button visible.</t>
-  </si>
-  <si>
     <t>TC_BBT_08</t>
   </si>
   <si>
-    <t>Save New Staff Button functionality</t>
-  </si>
-  <si>
-    <t>Click on the "Save New Staff" button</t>
-  </si>
-  <si>
-    <t>Should have an error saying all fields must be filled.</t>
-  </si>
-  <si>
-    <t>Error appears saying all fields must be filled</t>
-  </si>
-  <si>
     <t>TC_BBT_09</t>
   </si>
   <si>
-    <t>Should have error saying that Name can only accept letters, spaces, and hyphens.</t>
-  </si>
-  <si>
-    <t>Error appears saying that Name can only accept letters, spaces, and hyphens.</t>
-  </si>
-  <si>
     <t>TC_BBT_10</t>
   </si>
   <si>
-    <t>Should have error saying that Position can only accept letters, spaces, and hyphens.</t>
-  </si>
-  <si>
-    <t>Error appears saying that Position can only accept letters, spaces, and hyphens.</t>
-  </si>
-  <si>
     <t>TC_BBT_11</t>
   </si>
   <si>
-    <t>Should have error saying that Email is invalid</t>
-  </si>
-  <si>
-    <t>Error appears saying Invalid Email Format.</t>
-  </si>
-  <si>
     <t>TC_BBT_12</t>
   </si>
   <si>
-    <t>Should have error saying that Phone  contians invalid characters</t>
-  </si>
-  <si>
-    <t>Error appears saying that Phone contains invalid characters</t>
-  </si>
-  <si>
     <t>TC_BBT_13</t>
   </si>
   <si>
-    <t>Should have error saying that Salary must be a valid number</t>
-  </si>
-  <si>
-    <t>Error appears saying that Salary must be a valid number</t>
-  </si>
-  <si>
     <t>TC_BBT_14</t>
   </si>
   <si>
-    <t>Should have error saying that DOB and Start Date must be valid dates</t>
-  </si>
-  <si>
-    <t>Error appears saying that DOB and Start Date must be valid dates</t>
-  </si>
-  <si>
     <t>TC_BBT_15</t>
   </si>
   <si>
     <t>TC_BBT_16</t>
   </si>
   <si>
-    <t>Should have error saying that the address must match a certain format</t>
-  </si>
-  <si>
-    <t>Name = John Smith. Position = Manager. Email = JohnSmith@example.com. Phone = 0202020212. Salary = 50000. DOB = 1/1/2020. Start Date = 1/1/2025. Address = 1 Street Road, Wellington.</t>
-  </si>
-  <si>
-    <t>Error appears saying that Address must match a "(Number) (Street name), (City)" format</t>
-  </si>
-  <si>
-    <t>Message should appear saying that it added a new staff  successfully, and append the new staff to the Staff.txt file</t>
-  </si>
-  <si>
-    <t>Message appears saying that it added a new staff successfully. New staff appended to the Staff.txt file</t>
-  </si>
-  <si>
     <t>TC_BBT_17</t>
   </si>
   <si>
     <t>TC_BBT_18</t>
   </si>
   <si>
-    <t>Delete Staff Button functionality</t>
-  </si>
-  <si>
-    <t>Staff has been selected from Staff listbox</t>
-  </si>
-  <si>
-    <t>Click on the "Delete Staff" button</t>
-  </si>
-  <si>
-    <t>Message should appear asking for confirmation that you want to delete the staff member</t>
-  </si>
-  <si>
-    <t>Message appears asking "Are you sure you want to delete this staff member? (Name)"</t>
-  </si>
-  <si>
     <t>TC_BBT_19</t>
   </si>
   <si>
-    <t>Staff has been selected from SearchResults listbox</t>
-  </si>
-  <si>
     <t>TC_BBT_20</t>
   </si>
   <si>
-    <t>Staff has been selected from Staff or SearchReults listbox, Delete Staff has been pressed.</t>
-  </si>
-  <si>
-    <t>Click on the "Yes" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message should appear saying the staff was deleted, and removes the staff member from the Staff.txt file </t>
-  </si>
-  <si>
-    <t>Message appears saying "Staff deleted successfully". Staff.txt file no longer contains deleted user.</t>
-  </si>
-  <si>
     <t>TC_BBT_21</t>
   </si>
   <si>
-    <t>Export Button functionality</t>
-  </si>
-  <si>
-    <t>Click on the "Export" button</t>
-  </si>
-  <si>
-    <t>Message should appear asking user for confirmation to export and view the Staff's file</t>
-  </si>
-  <si>
-    <t>Message appear asking user for confirmation to export and view the Staff's file.</t>
-  </si>
-  <si>
     <t>TC_BBT_22</t>
   </si>
   <si>
     <t>TC_BBT_23</t>
   </si>
   <si>
-    <t>Staff has been selected from Staff or SearchReults listbox, Export Staff has been pressed.</t>
-  </si>
-  <si>
-    <t>Txt file should be created containing the staff's information.</t>
-  </si>
-  <si>
-    <t>Txt file is created that contains the staff's information.</t>
-  </si>
-  <si>
     <t>TC_BBT_24</t>
   </si>
   <si>
-    <t>No staff is selected</t>
-  </si>
-  <si>
-    <t>Message should appear saying that no staff member is selected.</t>
-  </si>
-  <si>
-    <t>Message appears saying "No staff selected."</t>
-  </si>
-  <si>
-    <t>Message should appear requesting user to select a staff member</t>
-  </si>
-  <si>
-    <t>Message appears saying "Please select a staff member."</t>
-  </si>
-  <si>
-    <t>Tooltip</t>
-  </si>
-  <si>
     <t>TC_BBT_25</t>
   </si>
   <si>
-    <t>Form Tooltip functionality</t>
-  </si>
-  <si>
     <t>TC_BBT_26</t>
   </si>
   <si>
-    <t>Staff has been selected from Staff or SearchReults listbox, Export Staff has been pressed, Staff member's txt file already exists</t>
-  </si>
-  <si>
-    <t>Existing txt file should be opened.</t>
-  </si>
-  <si>
-    <t>Existing txt file is opened</t>
-  </si>
-  <si>
-    <t>Name = 123, all other fields valid</t>
-  </si>
-  <si>
-    <t>Position = 123, all other fields valid</t>
-  </si>
-  <si>
-    <t>Email = 123, all other fields valid</t>
-  </si>
-  <si>
-    <t>Phone = ABC, all other fields valid</t>
-  </si>
-  <si>
-    <t>Salary = ABC, all other fields valid</t>
-  </si>
-  <si>
-    <t>DOB = 123, all other fields valid</t>
-  </si>
-  <si>
-    <t>Start Date = 123, all other fields valid</t>
-  </si>
-  <si>
-    <t>Address = 123, all other fields valid</t>
-  </si>
-  <si>
-    <t>no data inputted</t>
-  </si>
-  <si>
-    <t>Tooltip appears, giving a description of the button's function</t>
-  </si>
-  <si>
-    <t>Tooltip should appear giving a description of the button's function.</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Load button</t>
-  </si>
-  <si>
     <t>TC_BBT_27</t>
   </si>
   <si>
-    <t>Hover mouse over the A-Z button</t>
-  </si>
-  <si>
     <t>TC_BBT_28</t>
   </si>
   <si>
@@ -691,54 +415,12 @@
     <t>TC_BBT_33</t>
   </si>
   <si>
-    <t>Hover mouse over the Z-A button</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Search button</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Add Staff button</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Delete Staff button</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Export button</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Save New Staff button</t>
-  </si>
-  <si>
-    <t>Add Staff has been pressed</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Staff listbox</t>
-  </si>
-  <si>
-    <t>Tooltip should appear giving a description of the listbox's function.</t>
-  </si>
-  <si>
-    <t>Tooltip appears, giving a description of the listbox's function</t>
-  </si>
-  <si>
     <t>TC_BBT_34</t>
   </si>
   <si>
     <t>TC_BBT_35</t>
   </si>
   <si>
-    <t>Hover mouse over the Search Results listbox</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Search textbox</t>
-  </si>
-  <si>
-    <t>Tooltip should appear giving a description of the textbox's function.</t>
-  </si>
-  <si>
-    <t>Tooltip appears, giving a description of the textbox's function</t>
-  </si>
-  <si>
     <t>TC_BBT_36</t>
   </si>
   <si>
@@ -748,21 +430,6 @@
     <t>TC_BBT_38</t>
   </si>
   <si>
-    <t>Hover mouse over the ID textbox</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Name textbox</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Position textbox</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Email textbox</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Phone textbox</t>
-  </si>
-  <si>
     <t>TC_BBT_39</t>
   </si>
   <si>
@@ -785,12 +452,6 @@
   </si>
   <si>
     <t>TC_BBT_46</t>
-  </si>
-  <si>
-    <t>Hover mouse over the Salary textbox</t>
-  </si>
-  <si>
-    <t>Hover mouse over the DOB textbox</t>
   </si>
   <si>
     <t>TC_WBT_05</t>
@@ -1569,6 +1230,714 @@
   </si>
   <si>
     <t>Here’s a screenshot of the test results</t>
+  </si>
+  <si>
+    <t>Go to Login functionality</t>
+  </si>
+  <si>
+    <t>User not logged in</t>
+  </si>
+  <si>
+    <t>Should take you to Login page</t>
+  </si>
+  <si>
+    <t>Register functionality</t>
+  </si>
+  <si>
+    <t>Click on the Register button</t>
+  </si>
+  <si>
+    <t>Should take you to Register page</t>
+  </si>
+  <si>
+    <t>Takes you to Register page</t>
+  </si>
+  <si>
+    <t>Takes you to Login page</t>
+  </si>
+  <si>
+    <t>On Register page</t>
+  </si>
+  <si>
+    <t>Click on the top Register button</t>
+  </si>
+  <si>
+    <t>Should say "The x field is required" for each blank field</t>
+  </si>
+  <si>
+    <t>Says "The x field is required" for each blank field</t>
+  </si>
+  <si>
+    <t>UserName = User, Email = Email, Password = Pass@123, ConfirmPassword = Pass@123</t>
+  </si>
+  <si>
+    <t>Should complain that Email doesn't meet the "x@x.x" format, updating with the missing parts as they are filled in.</t>
+  </si>
+  <si>
+    <t>Complain that Email doesn't meet the "x@x.x" format, updating with the missing parts as they are filled in.</t>
+  </si>
+  <si>
+    <t>UserName = User, Email = Email@gmail.com, Password = Password, ConfirmPassword = Password</t>
+  </si>
+  <si>
+    <t>UserName = User, Email = Email@gmail.com, Password = Pass@123, ConfirmPassword = Password</t>
+  </si>
+  <si>
+    <t>Should say "Password must be at least 8 characters long and contain upper, lower, number, and special character."</t>
+  </si>
+  <si>
+    <t>Says "Password must be at least 8 characters long and contain upper, lower, number, and special character."</t>
+  </si>
+  <si>
+    <t>Should say "Passwords do not match."</t>
+  </si>
+  <si>
+    <t>Says "Passwords do not match."</t>
+  </si>
+  <si>
+    <t>UserName = User, Email = Email@gmail.com, Password = Pass@123, ConfirmPassword = Pass@123</t>
+  </si>
+  <si>
+    <t>Should create new Admin entry, take you to the menu page, and say "Hello, User" at the top right.</t>
+  </si>
+  <si>
+    <t>Create new Admin entry, takes you to the menu page, and says "Hello, User" at the top right.</t>
+  </si>
+  <si>
+    <t>Go to Register functionality</t>
+  </si>
+  <si>
+    <t>Login functionality</t>
+  </si>
+  <si>
+    <t>All fields blank</t>
+  </si>
+  <si>
+    <t>Click on the Login button</t>
+  </si>
+  <si>
+    <t>On Login page</t>
+  </si>
+  <si>
+    <t>On Login page, "User" account exists.</t>
+  </si>
+  <si>
+    <t>On Login page, "User" account does NOT exist.</t>
+  </si>
+  <si>
+    <t>Email = Email@gmail.com, Password = Pass@123</t>
+  </si>
+  <si>
+    <t>Should take you to the menu page, and say "Hello, User" at the top right.</t>
+  </si>
+  <si>
+    <t>Takes you to the menu page, and says "Hello, User" at the top right.</t>
+  </si>
+  <si>
+    <t>On Login page, "User" account exists but is disabled.</t>
+  </si>
+  <si>
+    <t>Should say "Account is disabled/inactive."</t>
+  </si>
+  <si>
+    <t>Says "Account is disabled/inactive."</t>
+  </si>
+  <si>
+    <t>Email = Email@gmail.com, Password = Password</t>
+  </si>
+  <si>
+    <t>Should say "Invalid email or password."</t>
+  </si>
+  <si>
+    <t>Says "Invalid email or password."</t>
+  </si>
+  <si>
+    <t>Logout functionality</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>Click on the Logout button</t>
+  </si>
+  <si>
+    <t>Should log you out and take you to the Login screen</t>
+  </si>
+  <si>
+    <t>Logs you out and takes you to the Login screen</t>
+  </si>
+  <si>
+    <t>Go to Menu functionality</t>
+  </si>
+  <si>
+    <t>Click on Full Metal Library button</t>
+  </si>
+  <si>
+    <t>Click on any button except Full Metal Library or Register</t>
+  </si>
+  <si>
+    <t>Go to Books functionality</t>
+  </si>
+  <si>
+    <t>Go to Authors functionality</t>
+  </si>
+  <si>
+    <t>Click the Books button on the menu bar</t>
+  </si>
+  <si>
+    <t>Click the Authors button on the menu bar</t>
+  </si>
+  <si>
+    <t>Go to Admins functionality</t>
+  </si>
+  <si>
+    <t>Click the Go to Books button</t>
+  </si>
+  <si>
+    <t>Click the Go to Authors button</t>
+  </si>
+  <si>
+    <t>Click the Go to Admins button</t>
+  </si>
+  <si>
+    <t>Click the Admins button on the menu bar</t>
+  </si>
+  <si>
+    <t>Takes you to the Menu page</t>
+  </si>
+  <si>
+    <t>Should take you to the Books page</t>
+  </si>
+  <si>
+    <t>Should take you to the Authors page</t>
+  </si>
+  <si>
+    <t>Should take you to the Admins page</t>
+  </si>
+  <si>
+    <t>Takes you to the Books page</t>
+  </si>
+  <si>
+    <t>Takes you to the Authors page</t>
+  </si>
+  <si>
+    <t>Takes you to the Admins page</t>
+  </si>
+  <si>
+    <t>Go to Create Book functionality</t>
+  </si>
+  <si>
+    <t>Click the Add New Book button</t>
+  </si>
+  <si>
+    <t>Should take you to the Create Book page</t>
+  </si>
+  <si>
+    <t>Takes you to the Create Book page</t>
+  </si>
+  <si>
+    <t>Go to Edit Book functionality</t>
+  </si>
+  <si>
+    <t>Click the Edit button</t>
+  </si>
+  <si>
+    <t>Should take you to the Edit Book page</t>
+  </si>
+  <si>
+    <t>Takes you to the Edit Book page</t>
+  </si>
+  <si>
+    <t>Go to Details Book functionality</t>
+  </si>
+  <si>
+    <t>Go to Delete Book functionality</t>
+  </si>
+  <si>
+    <t>Click the Details button</t>
+  </si>
+  <si>
+    <t>Click the Delete button</t>
+  </si>
+  <si>
+    <t>Should take you to the Details Book page</t>
+  </si>
+  <si>
+    <t>Takes you to the Details Book page</t>
+  </si>
+  <si>
+    <t>Should take you to the Delete Book page</t>
+  </si>
+  <si>
+    <t>Takes you to the Delete Book page</t>
+  </si>
+  <si>
+    <t>Go back to List functionality</t>
+  </si>
+  <si>
+    <t>User is logged in, on the Book Create, Edit, Details, or Delete page</t>
+  </si>
+  <si>
+    <t>Click the Back to List button</t>
+  </si>
+  <si>
+    <t>Should take you to Books page</t>
+  </si>
+  <si>
+    <t>Go to Create Author functionality</t>
+  </si>
+  <si>
+    <t>Go to Edit Author functionality</t>
+  </si>
+  <si>
+    <t>Go to Details Author functionality</t>
+  </si>
+  <si>
+    <t>Go to Delete Author functionality</t>
+  </si>
+  <si>
+    <t>User is logged in, on the Author Create, Edit, Details, or Delete page</t>
+  </si>
+  <si>
+    <t>Click the Add New Author button</t>
+  </si>
+  <si>
+    <t>Should take you to the Create Author page</t>
+  </si>
+  <si>
+    <t>Should take you to the Edit Author page</t>
+  </si>
+  <si>
+    <t>Should take you to the Details Author page</t>
+  </si>
+  <si>
+    <t>Should take you to the Delete Author page</t>
+  </si>
+  <si>
+    <t>Should take you to Authors page</t>
+  </si>
+  <si>
+    <t>Takes you to the Create Author page</t>
+  </si>
+  <si>
+    <t>Takes you to the Edit Author page</t>
+  </si>
+  <si>
+    <t>Takes you to the Details Author page</t>
+  </si>
+  <si>
+    <t>Takes you to the Delete Author page</t>
+  </si>
+  <si>
+    <t>Go to Create Admin functionality</t>
+  </si>
+  <si>
+    <t>Go to Edit Admin functionality</t>
+  </si>
+  <si>
+    <t>Go to Details Admin functionality</t>
+  </si>
+  <si>
+    <t>Go to Delete Admin functionality</t>
+  </si>
+  <si>
+    <t>Click the Add New Admin button</t>
+  </si>
+  <si>
+    <t>Should take you to the Create Admin page</t>
+  </si>
+  <si>
+    <t>Takes you to the Create Admin page</t>
+  </si>
+  <si>
+    <t>Should take you to the Edit Admin page</t>
+  </si>
+  <si>
+    <t>Takes you to the Edit Admin page</t>
+  </si>
+  <si>
+    <t>Should take you to the Details Admin page</t>
+  </si>
+  <si>
+    <t>Takes you to the Details Admin page</t>
+  </si>
+  <si>
+    <t>Should take you to the Delete Admin page</t>
+  </si>
+  <si>
+    <t>Takes you to the Delete Admin page</t>
+  </si>
+  <si>
+    <t>Should take you to Admins page</t>
+  </si>
+  <si>
+    <t>A-Z Book functionality</t>
+  </si>
+  <si>
+    <t>Z-A Book functionality</t>
+  </si>
+  <si>
+    <t>Z-A Author functionality</t>
+  </si>
+  <si>
+    <t>A-Z Author functionality</t>
+  </si>
+  <si>
+    <t>A-Z Admin functionality</t>
+  </si>
+  <si>
+    <t>Z-A Admin functionality</t>
+  </si>
+  <si>
+    <t>User is logged in, on the Admin Create, Edit, Details, or Delete page</t>
+  </si>
+  <si>
+    <t>User is logged in, on Menu screen</t>
+  </si>
+  <si>
+    <t>User is logged in, on Books page</t>
+  </si>
+  <si>
+    <t>User is logged in, on Authors page</t>
+  </si>
+  <si>
+    <t>User is logged in, on Admins page</t>
+  </si>
+  <si>
+    <t>Click on the "↑" button</t>
+  </si>
+  <si>
+    <t>Click on the "↓" button</t>
+  </si>
+  <si>
+    <t>Should sort Books alphabetically by Title</t>
+  </si>
+  <si>
+    <t>Should sort Books reverse alphabetically by Title</t>
+  </si>
+  <si>
+    <t>Should sort Authors alphabetically by FirstName</t>
+  </si>
+  <si>
+    <t>Should sort Authors reverse alphabetically by FirstName</t>
+  </si>
+  <si>
+    <t>Should sort Admins alphabetically by UserName</t>
+  </si>
+  <si>
+    <t>Should sort Admins reverse alphabetically by UserName</t>
+  </si>
+  <si>
+    <t>Sorts Books alphabetically by Title</t>
+  </si>
+  <si>
+    <t>Sorts Books reverse alphabetically by Title</t>
+  </si>
+  <si>
+    <t>Sorts Authors alphabetically by FirstName</t>
+  </si>
+  <si>
+    <t>Sorts Authors reverse alphabetically by FirstName</t>
+  </si>
+  <si>
+    <t>Sorts Admins alphabetically by UserName</t>
+  </si>
+  <si>
+    <t>Sorts Admins reverse alphabetically by UserName</t>
+  </si>
+  <si>
+    <t>Create Book functionality</t>
+  </si>
+  <si>
+    <t>TC_BBT_47</t>
+  </si>
+  <si>
+    <t>TC_BBT_48</t>
+  </si>
+  <si>
+    <t>TC_BBT_49</t>
+  </si>
+  <si>
+    <t>TC_BBT_50</t>
+  </si>
+  <si>
+    <t>TC_BBT_51</t>
+  </si>
+  <si>
+    <t>TC_BBT_52</t>
+  </si>
+  <si>
+    <t>TC_BBT_53</t>
+  </si>
+  <si>
+    <t>TC_BBT_54</t>
+  </si>
+  <si>
+    <t>TC_BBT_55</t>
+  </si>
+  <si>
+    <t>Click the Create button</t>
+  </si>
+  <si>
+    <t>Should say "The x field is required" for each blank field, and complain about the invalid date.</t>
+  </si>
+  <si>
+    <t>Says "The x field is required" for each blank field, and complains about the invalid date.</t>
+  </si>
+  <si>
+    <t>Should say "Publish date must be in the past", and "Genre can only contain letters and hypens"</t>
+  </si>
+  <si>
+    <t>Says "Publish date must be in the past", and "Genre can only contain letters and hypens"</t>
+  </si>
+  <si>
+    <t>Title = blank, Author = Charles Bronson, PublishDate = dd/mm/yyyy, Genre = blank, Available = Yes</t>
+  </si>
+  <si>
+    <t>Title = TestBook, Author = Charles Bronson, PublishDate = [Today's date], Genre = TestGenre1, Available = Yes</t>
+  </si>
+  <si>
+    <t>Title = TestBook, Author = Charles Bronson, PublishDate = 1/1/2000, Genre = TestGenre, Available = Yes</t>
+  </si>
+  <si>
+    <t>Should create a new book with the input information, and take you to the Books page</t>
+  </si>
+  <si>
+    <t>Creates a new book with the input information, and takes you to the Books page</t>
+  </si>
+  <si>
+    <t>Edit Book functionality</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Edit on the TestBook</t>
+  </si>
+  <si>
+    <t>Click the Save button</t>
+  </si>
+  <si>
+    <t>Title = blank, Author = Charles Bronson, PublishDate = 1/1/2000, Genre = blank, Available = Yes</t>
+  </si>
+  <si>
+    <t>Title = EditedBook, Author = Charles Bronson, PublishDate = [Today's date], Genre = TestGenre1, Available = Yes</t>
+  </si>
+  <si>
+    <t>Should save the book with the new edited information, and take you to the Books page</t>
+  </si>
+  <si>
+    <t>Saves the book with the new edited information, and takes you to the Books page</t>
+  </si>
+  <si>
+    <t>Title = EditedBook, Author = Clint Eastwood, PublishDate = 1/1/2003, Genre = EditedGenre, Available = No</t>
+  </si>
+  <si>
+    <t>Details-Edit functionality</t>
+  </si>
+  <si>
+    <t>Delete book functionality</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Delete on a book</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Details on a book</t>
+  </si>
+  <si>
+    <t>Should delete the book and take you to the Books page</t>
+  </si>
+  <si>
+    <t>Deletes the book and takes you to the Books page</t>
+  </si>
+  <si>
+    <t>Create Author functionality</t>
+  </si>
+  <si>
+    <t>FirstName = blank, Lastname = blank</t>
+  </si>
+  <si>
+    <t>FirstName = John1, Lastname = Brown@</t>
+  </si>
+  <si>
+    <t>Should say "First name can only contain letters and hyphens." and "Last name can only contain letters and hyphens."</t>
+  </si>
+  <si>
+    <t>Says "First name can only contain letters and hyphens." and "Last name can only contain letters and hyphens."</t>
+  </si>
+  <si>
+    <t>FirstName = John, Lastname = Brown</t>
+  </si>
+  <si>
+    <t>Should create a new author with the input information, and take you to the Authors page</t>
+  </si>
+  <si>
+    <t>Creates a new author with the input information, and takes you to the Authors page</t>
+  </si>
+  <si>
+    <t>TC_BBT_56</t>
+  </si>
+  <si>
+    <t>TC_BBT_57</t>
+  </si>
+  <si>
+    <t>TC_BBT_58</t>
+  </si>
+  <si>
+    <t>TC_BBT_59</t>
+  </si>
+  <si>
+    <t>TC_BBT_60</t>
+  </si>
+  <si>
+    <t>TC_BBT_61</t>
+  </si>
+  <si>
+    <t>TC_BBT_62</t>
+  </si>
+  <si>
+    <t>TC_BBT_63</t>
+  </si>
+  <si>
+    <t>TC_BBT_64</t>
+  </si>
+  <si>
+    <t>TC_BBT_65</t>
+  </si>
+  <si>
+    <t>TC_BBT_66</t>
+  </si>
+  <si>
+    <t>TC_BBT_67</t>
+  </si>
+  <si>
+    <t>TC_BBT_68</t>
+  </si>
+  <si>
+    <t>TC_BBT_69</t>
+  </si>
+  <si>
+    <t>TC_BBT_70</t>
+  </si>
+  <si>
+    <t>TC_BBT_71</t>
+  </si>
+  <si>
+    <t>TC_BBT_72</t>
+  </si>
+  <si>
+    <t>TC_BBT_73</t>
+  </si>
+  <si>
+    <t>TC_BBT_74</t>
+  </si>
+  <si>
+    <t>TC_BBT_75</t>
+  </si>
+  <si>
+    <t>TC_BBT_76</t>
+  </si>
+  <si>
+    <t>TC_BBT_77</t>
+  </si>
+  <si>
+    <t>TC_BBT_78</t>
+  </si>
+  <si>
+    <t>TC_BBT_79</t>
+  </si>
+  <si>
+    <t>TC_BBT_80</t>
+  </si>
+  <si>
+    <t>Edit Author functionality</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Edit on an Author</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Details on an author</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Delete on an author</t>
+  </si>
+  <si>
+    <t>Should delete the author and take you to the Authors page</t>
+  </si>
+  <si>
+    <t>Deletes the author and takes you to the Authors page</t>
+  </si>
+  <si>
+    <t>Create Admin functionality</t>
+  </si>
+  <si>
+    <t>Edit Admin functionality</t>
+  </si>
+  <si>
+    <t>Delete Admin functionality</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Create author</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Create book</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Create admin</t>
+  </si>
+  <si>
+    <t>UserName = blank, EmailAddress = blank, Password = blank, IsActive = Yes</t>
+  </si>
+  <si>
+    <t>UserName = TestAdmin, EmailAddress = A, Password = Pass@123, IsActive = Yes</t>
+  </si>
+  <si>
+    <t>Complains that Email doesn't meet the "x@x.x" format, updating with the missing parts as they are filled in.</t>
+  </si>
+  <si>
+    <t>UserName = TestAdmin, EmailAddress = Admin@gmail.com, Password = Pass@123, IsActive = Yes</t>
+  </si>
+  <si>
+    <t>UserName = TestAdmin, EmailAddress = Admin@gmail.com, Password = Password, IsActive = Yes</t>
+  </si>
+  <si>
+    <t>Should create new Admin entry and take you to the Admin page</t>
+  </si>
+  <si>
+    <t>Creates new Admin entry and takes you to the Admin page</t>
+  </si>
+  <si>
+    <t>User is logged in, has clicked Edit on an Admin</t>
+  </si>
+  <si>
+    <t>Should save the author with the new edited information, and take you to the Authors page</t>
+  </si>
+  <si>
+    <t>Saves the author with the new edited information, and takes you to the Authors page</t>
+  </si>
+  <si>
+    <t>Should save the admin with the new edited information, and take you to the Admins page</t>
+  </si>
+  <si>
+    <t>Saves the admin with the new edited information, and takes you to the Admins page</t>
+  </si>
+  <si>
+    <t>Should delete the admin and take you to the Admins page</t>
+  </si>
+  <si>
+    <t>Deletes the admin and takes you to the Admins page</t>
+  </si>
+  <si>
+    <t>Go to Test Pages functionality</t>
+  </si>
+  <si>
+    <t>Click the Go To Tests button</t>
+  </si>
+  <si>
+    <t>Should take you to Tests page</t>
+  </si>
+  <si>
+    <t>Breaks because there is no Tests page</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +2168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1825,9 +2194,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1847,9 +2213,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1868,14 +2231,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1942,6 +2314,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2241,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7054E7F-35B4-4301-A3E0-05785D130094}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,68 +2638,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>343</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>389</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -2334,23 +2711,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>351</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
@@ -2361,52 +2738,54 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>368</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>346</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>354</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>346</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -2414,26 +2793,28 @@
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>346</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>4</v>
@@ -2441,26 +2822,28 @@
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>346</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>4</v>
@@ -2468,26 +2851,28 @@
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>346</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>4</v>
@@ -2495,28 +2880,28 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>169</v>
+      <c r="D10" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>369</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>4</v>
@@ -2524,28 +2909,28 @@
     </row>
     <row r="11" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>169</v>
+      <c r="D11" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>373</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>369</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>4</v>
@@ -2553,28 +2938,28 @@
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>169</v>
+      <c r="D12" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>144</v>
+        <v>379</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>369</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>4</v>
@@ -2582,989 +2967,1785 @@
     </row>
     <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I43" s="16" t="s">
+      <c r="B43" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="A44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3580,7 +4761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34913591-753E-4C12-8F06-CC3CB8FC123F}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -3598,15 +4779,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -3639,22 +4820,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -3665,22 +4846,22 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
@@ -3691,22 +4872,22 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
@@ -3717,22 +4898,22 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>4</v>
@@ -3740,25 +4921,25 @@
     </row>
     <row r="7" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
@@ -3766,25 +4947,25 @@
     </row>
     <row r="8" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>4</v>
@@ -3792,103 +4973,103 @@
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>4</v>
@@ -3896,264 +5077,264 @@
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>360</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="E14" s="18" t="s">
-        <v>248</v>
+      <c r="E14" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>362</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>365</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>368</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>4</v>
@@ -4161,155 +5342,155 @@
     </row>
     <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>4</v>
@@ -4317,25 +5498,25 @@
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>4</v>
@@ -4343,25 +5524,25 @@
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>316</v>
+        <v>203</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>4</v>
@@ -4369,25 +5550,25 @@
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>4</v>
@@ -4395,25 +5576,25 @@
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>327</v>
+        <v>214</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>4</v>
@@ -4421,25 +5602,25 @@
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>4</v>
@@ -4447,25 +5628,25 @@
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>343</v>
+        <v>230</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>344</v>
+        <v>231</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>4</v>
@@ -4473,60 +5654,60 @@
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>351</v>
+        <v>238</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>375</v>
+        <v>259</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="3">
@@ -4535,12 +5716,12 @@
       <c r="F41" s="3">
         <v>33</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>51.515099999999997</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="3">
@@ -4549,64 +5730,64 @@
       <c r="F42" s="3">
         <v>15</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>26.666599999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
-        <v>374</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4624,7 +5805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAABC76-6758-4DE5-9192-7D2F0BD08C03}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4640,393 +5821,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="A2" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="A3" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="A4" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="A5" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="A6" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="A7" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="A8" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="A9" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="A10" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="A11" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="A12" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="A13" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="A14" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="A15" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="A16" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="A17" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="A18" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="A19" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>453</v>
+      <c r="B21" s="22" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
-        <v>454</v>
+      <c r="B22" s="22" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
